--- a/config_opt.xlsx
+++ b/config_opt.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ResearchMainStream\0.ResearchBySection\C.动力学模型\参数优化\参数优化实现\基于Pymoo框架优化\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ResearchMainStream\0.ResearchBySection\C.动力学模型\参数优化\参数优化实现\并行化直曲线运行综合评价\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967EA1D-FFCD-42E9-8B17-41C7EA9E0314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC8878C-0FEA-4180-B3D1-13171323FDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-9720" windowWidth="21840" windowHeight="38040" xr2:uid="{47FD7D0E-5AC1-4F0E-856B-0AFE358672A9}"/>
+    <workbookView xWindow="24510" yWindow="0" windowWidth="27090" windowHeight="21000" activeTab="1" xr2:uid="{47FD7D0E-5AC1-4F0E-856B-0AFE358672A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="原参数表备份" sheetId="3" r:id="rId2"/>
+    <sheet name="文件组织形式" sheetId="4" r:id="rId2"/>
+    <sheet name="原参数表备份" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$33</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
   <si>
     <t>上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +323,884 @@
       </rPr>
       <t>，与7耦合</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config_opt.xlsx</t>
+  </si>
+  <si>
+    <t>PrepareBatchFiles.py</t>
+  </si>
+  <si>
+    <t>SweepL1xL2xL3x.py</t>
+  </si>
+  <si>
+    <t>BatchTmp</t>
+  </si>
+  <si>
+    <t>ChkPnt</t>
+  </si>
+  <si>
+    <t>ref_files</t>
+  </si>
+  <si>
+    <t>SbrExport_SPCKResult.qs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRPerf.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURVEPerf.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCrticalVelocity.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subvars_OptBase.subvar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vehicle4WDB_RigidCRV300m_OptBase.spck</t>
+  </si>
+  <si>
+    <t>Vehicle4WDB_RigidCriticalVel_OptBase.spck</t>
+  </si>
+  <si>
+    <t>Result_RigidCriticalVel.spf</t>
+  </si>
+  <si>
+    <t>Vehicle4WDB_IRWCRV300m_OptBase.spck</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直线二分法查找临界速度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曲线运行评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Batch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行前，将所需模型按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置于临时文件夹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数化扫略</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直线运行评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚本文件，将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sbr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件提取为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.dat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可读文本数据文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刚性轮对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临界速度模型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曲线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刚性轮对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” R300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曲线独立轮对差速控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> R300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刚性轮对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">” AAR5 V80kmph </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>典型地铁线路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平稳性评价模型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIMPACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型共同参数文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结果后处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刚性轮对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临界速度模型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结果后处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曲线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刚性轮对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>” R300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结果后处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曲线独立轮对差速控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> R300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结果后处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>典型地铁线路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平稳性评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算过程中每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Batch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的模型临时目录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算过程中每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Batch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查点的储存</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIMPACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型附加文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>python</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仿真结果导出脚本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIMPACK</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后处理文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件夹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vehicle4WDB_RigidSTR80kmph_OptBase.spck</t>
+  </si>
+  <si>
+    <t>Result_RigidCRV300m.spf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result_IRWCRV300m.spf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result_RigidSTR80kmph.spf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,9 +1209,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,8 +1263,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +1338,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -452,7 +1398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,67 +1414,118 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -847,759 +1844,759 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313A8952-3AAD-4FAF-8619-F57E70F2129B}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="16" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
         <v>120</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>10000</v>
       </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:F30" si="0">E3</f>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F16" si="0">E3</f>
         <v>10000</v>
       </c>
-      <c r="G3" s="9">
-        <f t="shared" ref="G3:G30" si="1">E3</f>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G16" si="1">E3</f>
         <v>10000</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>800000</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f t="shared" si="1"/>
         <v>800000</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>800000</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f t="shared" si="1"/>
         <v>800000</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>600000</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
         <v>5000000</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>120000</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>120000</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>150000</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>20000</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>8000000</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <f t="shared" si="1"/>
         <v>8000000</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>50000</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
         <v>2500000</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
         <v>20000000</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
+      <c r="A16" s="23">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>1</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>600000</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+      <c r="A17" s="23">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
         <v>25000</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
+      <c r="A18" s="23">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
         <v>-1.8</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15">
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
         <v>50000</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
+      <c r="A20" s="23">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
         <v>1200000</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
+      <c r="A21" s="23">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
         <v>1200000</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
+      <c r="A22" s="23">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
         <v>5000</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
+      <c r="A23" s="23">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
+      <c r="A24" s="23">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
         <v>2000</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
+      <c r="A25" s="23">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
         <v>3000</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="24">
+      <c r="A26" s="23">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
         <v>5000</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
+      <c r="A27" s="23">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
         <v>1000</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
+      <c r="A28" s="23">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="12">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15">
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
         <v>560</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
+      <c r="A29" s="23">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="12">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15">
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
         <v>100</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
+      <c r="A30" s="23">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="12">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15">
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
         <v>560</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="24">
+      <c r="A31" s="23">
         <v>30</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>1</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="14">
         <v>0.2</v>
       </c>
-      <c r="F31" s="10">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10">
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
         <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
+      <c r="A32" s="23">
         <v>31</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>1</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F32" s="10">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10">
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
         <v>0.6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
+      <c r="A33" s="23">
         <v>32</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>1</v>
       </c>
-      <c r="E33" s="15">
-        <v>0</v>
-      </c>
-      <c r="F33" s="10">
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
         <v>-0.6</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>0.4</v>
       </c>
     </row>
@@ -1613,6 +2610,282 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4105ADE-8D35-4794-92EF-F2701B489055}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="31" customWidth="1"/>
+    <col min="3" max="3" width="44.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="34">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="34">
+        <v>16</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35">
+        <v>17</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35">
+        <v>18</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35">
+        <v>19</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B3:B7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8622F6-158D-4144-BBF6-63A63F22E7C9}">
   <dimension ref="A1:H33"/>
   <sheetViews>

--- a/config_opt.xlsx
+++ b/config_opt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ResearchMainStream\0.ResearchBySection\C.动力学模型\参数优化\参数优化实现\并行化直曲线运行综合评价\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA50B79A-64D8-42E5-BF46-0FE25ACC2997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8366E2C8-F4C6-400F-94E1-EB85B78C1275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-9720" windowWidth="21840" windowHeight="38040" xr2:uid="{47FD7D0E-5AC1-4F0E-856B-0AFE358672A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{47FD7D0E-5AC1-4F0E-856B-0AFE358672A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1686,6 +1686,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1697,24 +1715,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8453,10 +8453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313A8952-3AAD-4FAF-8619-F57E70F2129B}">
-  <dimension ref="A1:O204"/>
+  <dimension ref="A1:R204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -8468,7 +8468,7 @@
     <col min="5" max="5" width="16.875" style="14" customWidth="1"/>
     <col min="6" max="6" width="26.25" style="4" customWidth="1"/>
     <col min="7" max="7" width="35" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.125" style="47" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8496,13 +8496,13 @@
       <c r="H1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
@@ -8520,9 +8520,9 @@
       <c r="E2" s="12">
         <v>120</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
@@ -8540,15 +8540,15 @@
       <c r="E3" s="12">
         <v>10000</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="39">
         <f>E3*0.2</f>
         <v>2000</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="39">
         <f>E3*5</f>
         <v>50000</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="42">
         <v>1</v>
       </c>
     </row>
@@ -8568,15 +8568,15 @@
       <c r="E4" s="12">
         <v>800000</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="39">
         <f t="shared" ref="F4:F6" si="0">E4*0.2</f>
         <v>160000</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="39">
         <f t="shared" ref="G4:G6" si="1">E4*5</f>
         <v>4000000</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="42">
         <v>2</v>
       </c>
     </row>
@@ -8596,9 +8596,9 @@
       <c r="E5" s="12">
         <v>800000</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
@@ -8616,15 +8616,15 @@
       <c r="E6" s="12">
         <v>600000</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="39">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="39">
         <f t="shared" si="1"/>
         <v>3000000</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="42">
         <v>3</v>
       </c>
     </row>
@@ -8644,9 +8644,9 @@
       <c r="E7" s="12">
         <v>5000000</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
@@ -8664,15 +8664,15 @@
       <c r="E8" s="12">
         <v>120000</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="39">
         <f>E8*0.2</f>
         <v>24000</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="39">
         <f>E8*5</f>
         <v>600000</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="42">
         <v>4</v>
       </c>
     </row>
@@ -8692,9 +8692,9 @@
       <c r="E9" s="12">
         <v>120000</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
@@ -8712,15 +8712,15 @@
       <c r="E10" s="12">
         <v>150000</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="39">
         <f t="shared" ref="F10:F13" si="2">E10*0.2</f>
         <v>30000</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="39">
         <f t="shared" ref="G10:G13" si="3">E10*5</f>
         <v>750000</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="42">
         <v>5</v>
       </c>
     </row>
@@ -8740,15 +8740,15 @@
       <c r="E11" s="12">
         <v>20000</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="39">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="39">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="42">
         <v>6</v>
       </c>
     </row>
@@ -8768,15 +8768,15 @@
       <c r="E12" s="12">
         <v>8000000</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="39">
         <f t="shared" si="2"/>
         <v>1600000</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="39">
         <f t="shared" si="3"/>
         <v>40000000</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="42">
         <v>7</v>
       </c>
     </row>
@@ -8796,15 +8796,15 @@
       <c r="E13" s="12">
         <v>50000</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="39">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="39">
         <f t="shared" si="3"/>
         <v>250000</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="42">
         <v>8</v>
       </c>
     </row>
@@ -8824,9 +8824,9 @@
       <c r="E14" s="12">
         <v>2500000</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
@@ -8844,9 +8844,9 @@
       <c r="E15" s="12">
         <v>20000000</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
@@ -8864,14 +8864,14 @@
       <c r="E16" s="12">
         <v>600000</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="39">
         <v>100</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="39">
         <f>E16*5</f>
         <v>3000000</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="42">
         <v>9</v>
       </c>
     </row>
@@ -8891,9 +8891,9 @@
       <c r="E17" s="12">
         <v>25000</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
@@ -8911,9 +8911,9 @@
       <c r="E18" s="13">
         <v>-1.8</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
@@ -8931,9 +8931,9 @@
       <c r="E19" s="12">
         <v>50000</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
@@ -8951,9 +8951,9 @@
       <c r="E20" s="12">
         <v>1200000</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
@@ -8971,9 +8971,9 @@
       <c r="E21" s="12">
         <v>1200000</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
@@ -8991,9 +8991,9 @@
       <c r="E22" s="12">
         <v>5000</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
@@ -9011,9 +9011,9 @@
       <c r="E23" s="12">
         <v>0</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
@@ -9031,9 +9031,9 @@
       <c r="E24" s="12">
         <v>2000</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
@@ -9051,9 +9051,9 @@
       <c r="E25" s="12">
         <v>3000</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
@@ -9071,9 +9071,9 @@
       <c r="E26" s="12">
         <v>5000</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
@@ -9091,9 +9091,9 @@
       <c r="E27" s="12">
         <v>1000</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
@@ -9111,9 +9111,9 @@
       <c r="E28" s="12">
         <v>560</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
@@ -9131,9 +9131,9 @@
       <c r="E29" s="12">
         <v>100</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
@@ -9151,9 +9151,9 @@
       <c r="E30" s="12">
         <v>560</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
@@ -9171,13 +9171,13 @@
       <c r="E31" s="12">
         <v>0.2</v>
       </c>
-      <c r="F31" s="44">
-        <v>0</v>
-      </c>
-      <c r="G31" s="44">
+      <c r="F31" s="40">
+        <v>0</v>
+      </c>
+      <c r="G31" s="40">
         <v>0.64</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="42">
         <v>10</v>
       </c>
     </row>
@@ -9197,17 +9197,17 @@
       <c r="E32" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F32" s="44">
-        <v>0</v>
-      </c>
-      <c r="G32" s="44">
+      <c r="F32" s="40">
+        <v>0</v>
+      </c>
+      <c r="G32" s="40">
         <v>0.64</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="42">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>32</v>
       </c>
@@ -9223,115 +9223,137 @@
       <c r="E33" s="12">
         <v>0</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="40">
         <v>-0.6</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="40">
         <v>0.4</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="42">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -10433,6 +10455,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10474,7 +10497,7 @@
       <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="47" t="s">
         <v>110</v>
       </c>
       <c r="C3" s="30" t="s">
@@ -10488,7 +10511,7 @@
       <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="30" t="s">
         <v>83</v>
       </c>
@@ -10500,7 +10523,7 @@
       <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="30" t="s">
         <v>76</v>
       </c>
@@ -10512,7 +10535,7 @@
       <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="30" t="s">
         <v>77</v>
       </c>
@@ -10524,7 +10547,7 @@
       <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="30" t="s">
         <v>82</v>
       </c>
@@ -10550,7 +10573,7 @@
       <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="46" t="s">
         <v>112</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -10564,7 +10587,7 @@
       <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="31" t="s">
         <v>86</v>
       </c>
@@ -10576,7 +10599,7 @@
       <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="31" t="s">
         <v>89</v>
       </c>
@@ -10588,7 +10611,7 @@
       <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="31" t="s">
         <v>116</v>
       </c>
@@ -10614,7 +10637,7 @@
       <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="45" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="32" t="s">
@@ -10628,7 +10651,7 @@
       <c r="A15" s="32">
         <v>14</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="32" t="s">
         <v>117</v>
       </c>
@@ -10640,7 +10663,7 @@
       <c r="A16" s="32">
         <v>15</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="32" t="s">
         <v>118</v>
       </c>
@@ -10652,7 +10675,7 @@
       <c r="A17" s="32">
         <v>16</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="32" t="s">
         <v>119</v>
       </c>
@@ -10664,7 +10687,7 @@
       <c r="A18" s="33">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="44" t="s">
         <v>115</v>
       </c>
       <c r="C18" s="33" t="s">
@@ -10678,7 +10701,7 @@
       <c r="A19" s="33">
         <v>18</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="33" t="s">
         <v>79</v>
       </c>
@@ -10690,7 +10713,7 @@
       <c r="A20" s="33">
         <v>19</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="33" t="s">
         <v>80</v>
       </c>
@@ -10715,7 +10738,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J273"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M252" sqref="M252"/>
     </sheetView>
   </sheetViews>

--- a/config_opt.xlsx
+++ b/config_opt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ResearchMainStream\0.ResearchBySection\C.动力学模型\参数优化\参数优化实现\ParallelSweepSimpack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C797DDFC-6038-464C-8434-0459513D1A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DC5C9D-77A0-48B2-A6FC-011CFEAF1FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{47FD7D0E-5AC1-4F0E-856B-0AFE358672A9}"/>
+    <workbookView xWindow="2730" yWindow="600" windowWidth="23310" windowHeight="21000" xr2:uid="{47FD7D0E-5AC1-4F0E-856B-0AFE358672A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1863,9 +1863,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313A8952-3AAD-4FAF-8619-F57E70F2129B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1912,7 +1915,7 @@
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -1977,18 +1980,17 @@
         <v>800000</v>
       </c>
       <c r="F4" s="37">
-        <f t="shared" ref="F4:F6" si="0">E4*0.2</f>
-        <v>160000</v>
+        <v>50000</v>
       </c>
       <c r="G4" s="37">
-        <f t="shared" ref="G4:G6" si="1">E4*5</f>
+        <f t="shared" ref="G4:G6" si="0">E4*5</f>
         <v>4000000</v>
       </c>
       <c r="H4" s="40">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -2025,18 +2027,18 @@
         <v>600000</v>
       </c>
       <c r="F6" s="37">
+        <f t="shared" ref="F4:F6" si="1">E6*0.2</f>
+        <v>120000</v>
+      </c>
+      <c r="G6" s="37">
         <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="G6" s="37">
-        <f t="shared" si="1"/>
         <v>3000000</v>
       </c>
       <c r="H6" s="40">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -2073,8 +2075,7 @@
         <v>120000</v>
       </c>
       <c r="F8" s="37">
-        <f>E8*0.2</f>
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="G8" s="37">
         <f>E8*5</f>
@@ -2084,7 +2085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -2121,11 +2122,10 @@
         <v>150000</v>
       </c>
       <c r="F10" s="37">
-        <f t="shared" ref="F10:F13" si="2">E10*0.2</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="37">
-        <f t="shared" ref="G10:G13" si="3">E10*5</f>
+        <f t="shared" ref="G10:G13" si="2">E10*5</f>
         <v>750000</v>
       </c>
       <c r="H10" s="40">
@@ -2149,11 +2149,10 @@
         <v>20000</v>
       </c>
       <c r="F11" s="37">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="37">
         <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-      <c r="G11" s="37">
-        <f t="shared" si="3"/>
         <v>100000</v>
       </c>
       <c r="H11" s="40">
@@ -2177,12 +2176,11 @@
         <v>8000000</v>
       </c>
       <c r="F12" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F10:F13" si="3">E12*0.2</f>
         <v>1600000</v>
       </c>
       <c r="G12" s="37">
-        <f t="shared" si="3"/>
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="H12" s="40">
         <v>7</v>
@@ -2205,18 +2203,18 @@
         <v>50000</v>
       </c>
       <c r="F13" s="37">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="G13" s="37">
         <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="G13" s="37">
-        <f t="shared" si="3"/>
         <v>250000</v>
       </c>
       <c r="H13" s="40">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -2236,7 +2234,7 @@
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -2283,7 +2281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -2303,7 +2301,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -2323,7 +2321,7 @@
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -2343,7 +2341,7 @@
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -2363,7 +2361,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -2383,7 +2381,7 @@
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -2403,7 +2401,7 @@
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -2423,7 +2421,7 @@
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -2443,7 +2441,7 @@
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -2463,7 +2461,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -2483,7 +2481,7 @@
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -2503,7 +2501,7 @@
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -2523,7 +2521,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -2543,7 +2541,7 @@
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -3861,6 +3859,13 @@
       <c r="E204" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H33" xr:uid="{313A8952-3AAD-4FAF-8619-F57E70F2129B}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/config_opt.xlsx
+++ b/config_opt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ResearchMainStream\0.ResearchBySection\C.动力学模型\参数优化\参数优化实现\ParallelSweepSimpack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DC5C9D-77A0-48B2-A6FC-011CFEAF1FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E7C3E1-380A-4FD7-8766-67AE06A496CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="600" windowWidth="23310" windowHeight="21000" xr2:uid="{47FD7D0E-5AC1-4F0E-856B-0AFE358672A9}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="34200" windowHeight="19620" xr2:uid="{47FD7D0E-5AC1-4F0E-856B-0AFE358672A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1863,10 +1863,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313A8952-3AAD-4FAF-8619-F57E70F2129B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -1915,7 +1914,7 @@
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>600000</v>
       </c>
       <c r="F6" s="37">
-        <f t="shared" ref="F4:F6" si="1">E6*0.2</f>
+        <f t="shared" ref="F6" si="1">E6*0.2</f>
         <v>120000</v>
       </c>
       <c r="G6" s="37">
@@ -2038,7 +2037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -2085,7 +2084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>8000000</v>
       </c>
       <c r="F12" s="37">
-        <f t="shared" ref="F10:F13" si="3">E12*0.2</f>
+        <f t="shared" ref="F12:F13" si="3">E12*0.2</f>
         <v>1600000</v>
       </c>
       <c r="G12" s="37">
@@ -2214,7 +2213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -2234,7 +2233,7 @@
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -2301,7 +2300,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -2321,7 +2320,7 @@
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -2341,7 +2340,7 @@
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -2361,7 +2360,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -2381,7 +2380,7 @@
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -2401,7 +2400,7 @@
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -2421,7 +2420,7 @@
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -2441,7 +2440,7 @@
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -2461,7 +2460,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -2481,7 +2480,7 @@
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -2501,7 +2500,7 @@
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -2521,7 +2520,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -2541,7 +2540,7 @@
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -3859,13 +3858,7 @@
       <c r="E204" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H33" xr:uid="{313A8952-3AAD-4FAF-8619-F57E70F2129B}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H33" xr:uid="{313A8952-3AAD-4FAF-8619-F57E70F2129B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/config_opt.xlsx
+++ b/config_opt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ResearchMainStream\0.ResearchBySection\C.动力学模型\参数优化\参数优化实现\ParallelSweepSimpack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ResearchMainStream\0.ResearchBySection\C.动力学模型\C23参数优化\参数优化实现\ParallelSweepSimpack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E7C3E1-380A-4FD7-8766-67AE06A496CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BF4AE0-9E2D-408E-B604-E9FBEB29F6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="34200" windowHeight="19620" xr2:uid="{47FD7D0E-5AC1-4F0E-856B-0AFE358672A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30270" windowHeight="21000" xr2:uid="{47FD7D0E-5AC1-4F0E-856B-0AFE358672A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1567,9 +1567,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1607,7 +1607,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1713,7 +1713,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1855,7 +1855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1866,7 +1866,7 @@
   <dimension ref="A1:R204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1951,12 +1951,10 @@
         <v>10000</v>
       </c>
       <c r="F3" s="37">
-        <f>E3*0.2</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G3" s="37">
-        <f>E3*5</f>
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="H3" s="40">
         <v>1</v>
@@ -1982,8 +1980,7 @@
         <v>50000</v>
       </c>
       <c r="G4" s="37">
-        <f t="shared" ref="G4:G6" si="0">E4*5</f>
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="H4" s="40">
         <v>2</v>
@@ -2026,12 +2023,10 @@
         <v>600000</v>
       </c>
       <c r="F6" s="37">
-        <f t="shared" ref="F6" si="1">E6*0.2</f>
-        <v>120000</v>
+        <v>500000</v>
       </c>
       <c r="G6" s="37">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="H6" s="40">
         <v>3</v>
@@ -2077,8 +2072,7 @@
         <v>15000</v>
       </c>
       <c r="G8" s="37">
-        <f>E8*5</f>
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="H8" s="40">
         <v>4</v>
@@ -2121,11 +2115,10 @@
         <v>150000</v>
       </c>
       <c r="F10" s="37">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="G10" s="37">
-        <f t="shared" ref="G10:G13" si="2">E10*5</f>
-        <v>750000</v>
+        <v>600000</v>
       </c>
       <c r="H10" s="40">
         <v>5</v>
@@ -2148,11 +2141,10 @@
         <v>20000</v>
       </c>
       <c r="F11" s="37">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G11" s="37">
-        <f t="shared" si="2"/>
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="H11" s="40">
         <v>6</v>
@@ -2175,11 +2167,10 @@
         <v>8000000</v>
       </c>
       <c r="F12" s="37">
-        <f t="shared" ref="F12:F13" si="3">E12*0.2</f>
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="G12" s="37">
-        <v>60000000</v>
+        <v>20000000</v>
       </c>
       <c r="H12" s="40">
         <v>7</v>
@@ -2202,12 +2193,10 @@
         <v>50000</v>
       </c>
       <c r="F13" s="37">
-        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="G13" s="37">
-        <f t="shared" si="2"/>
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="H13" s="40">
         <v>8</v>
@@ -2273,8 +2262,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="37">
-        <f>E16*5</f>
-        <v>3000000</v>
+        <v>300000</v>
       </c>
       <c r="H16" s="40">
         <v>9</v>

--- a/config_opt.xlsx
+++ b/config_opt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ResearchMainStream\0.ResearchBySection\C.动力学模型\C23参数优化\参数优化实现\ParallelSweepSimpack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BF4AE0-9E2D-408E-B604-E9FBEB29F6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBCB2B3-F2C8-4AC7-8663-8E5AFC2237A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30270" windowHeight="21000" xr2:uid="{47FD7D0E-5AC1-4F0E-856B-0AFE358672A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{47FD7D0E-5AC1-4F0E-856B-0AFE358672A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1410,7 +1410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1548,6 +1548,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1866,7 +1869,7 @@
   <dimension ref="A1:R204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1879,6 +1882,9 @@
     <col min="6" max="6" width="26.25" style="4" customWidth="1"/>
     <col min="7" max="7" width="35" style="4" customWidth="1"/>
     <col min="8" max="8" width="23.125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1909,7 +1915,7 @@
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="39"/>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
@@ -1959,6 +1965,9 @@
       <c r="H3" s="40">
         <v>1</v>
       </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
@@ -1985,6 +1994,9 @@
       <c r="H4" s="40">
         <v>2</v>
       </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
@@ -2031,6 +2043,9 @@
       <c r="H6" s="40">
         <v>3</v>
       </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
@@ -2077,6 +2092,9 @@
       <c r="H8" s="40">
         <v>4</v>
       </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
@@ -2123,6 +2141,9 @@
       <c r="H10" s="40">
         <v>5</v>
       </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
@@ -2149,6 +2170,9 @@
       <c r="H11" s="40">
         <v>6</v>
       </c>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
@@ -2175,6 +2199,9 @@
       <c r="H12" s="40">
         <v>7</v>
       </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
@@ -2201,6 +2228,9 @@
       <c r="H13" s="40">
         <v>8</v>
       </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
@@ -2267,8 +2297,11 @@
       <c r="H16" s="40">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -2288,7 +2321,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -2308,7 +2341,7 @@
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -2328,7 +2361,7 @@
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -2348,7 +2381,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -2368,7 +2401,7 @@
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -2388,7 +2421,7 @@
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -2408,7 +2441,7 @@
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -2428,7 +2461,7 @@
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -2448,7 +2481,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -2468,7 +2501,7 @@
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -2488,7 +2521,7 @@
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -2508,7 +2541,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -2528,7 +2561,7 @@
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -2548,7 +2581,7 @@
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -2573,8 +2606,9 @@
       <c r="H31" s="40">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -2599,6 +2633,7 @@
       <c r="H32" s="40">
         <v>11</v>
       </c>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
@@ -2625,6 +2660,7 @@
       <c r="H33" s="40">
         <v>12</v>
       </c>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
